--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1236,33 +1191,6 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>163</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1274,37 +1202,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>104</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>163</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1314,39 +1215,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>163</v>
-      </c>
-      <c r="M4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1618,31 +1492,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>26.65311702887463</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1698,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.183124171002936</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1942,25 +1816,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3.253117028874624</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -2022,25 +1896,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.183124171002936</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>29.84851999999995</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>189.490909090909</v>
       </c>
       <c r="C2" t="n">
-        <v>182.9252525252525</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>169.7939393939394</v>
+        <v>156.6626262626262</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.5313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>143.27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>171.584</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>192.176</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>215.342</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>261.674</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>323.45</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>392.948</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>470.1679999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>531.944</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>585.9979999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>632.3299999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>650.348</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>639.8429494949495</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>609.6929292929293</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>491.5111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>393.0262626262626</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>314.2383838383838</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>261.7131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>222.3191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>169.7939393939394</v>
+        <v>182.9252525252525</v>
       </c>
       <c r="C3" t="n">
         <v>163.2282828282828</v>
@@ -2572,67 +2446,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>212.768</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>305.432</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>308.6525858585859</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>365.2805858585859</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>437.3525858585859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>460.5185858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>486.2585858585859</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>486.2585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>465.2484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>215.7535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>156.6626262626262</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="C4" t="n">
         <v>150.0969696969697</v>
@@ -2649,67 +2523,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>202.472</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>202.472</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>284.84</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>356.912</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>363.0332929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>363.0332929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>202.6222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3512,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.351480000000045</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76326.84612800002</v>
+        <v>76023.241008</v>
       </c>
       <c r="C2" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9318.849550950721</v>
+        <v>9272.289645445851</v>
       </c>
       <c r="E2" t="n">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="F2" t="n">
-        <v>20316.60137284264</v>
+        <v>20427.00162038327</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="J2" t="n">
-        <v>62.4</v>
+        <v>61.8</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1492,31 +1492,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>72.25717783899596</v>
       </c>
       <c r="M3" t="n">
-        <v>26.65311702887463</v>
+        <v>103</v>
       </c>
       <c r="N3" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>42.1831241710029</v>
       </c>
       <c r="N4" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>6.183124171002936</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="J2" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>46.1</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>61.6</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>69.3</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>61.5</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>53.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>46.1</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>17.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1816,28 +1816,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>72.25717783899596</v>
       </c>
       <c r="M3" t="n">
-        <v>3.253117028874624</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>57.2</v>
+        <v>56.4</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>22.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1896,25 +1896,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>18.7831241710029</v>
       </c>
       <c r="N4" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>6.183124171002936</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.4</v>
+        <v>1.007719999999991</v>
       </c>
       <c r="T2" t="n">
-        <v>29.84851999999995</v>
+        <v>31.4</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>189.490909090909</v>
+        <v>187.8909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7939393939394</v>
+        <v>168.1939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>156.6626262626262</v>
+        <v>155.0626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>143.5313131313131</v>
+        <v>141.9313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="G2" t="n">
-        <v>143.27</v>
+        <v>141.472</v>
       </c>
       <c r="H2" t="n">
-        <v>171.584</v>
+        <v>169.39</v>
       </c>
       <c r="I2" t="n">
-        <v>192.176</v>
+        <v>189.487</v>
       </c>
       <c r="J2" t="n">
-        <v>215.342</v>
+        <v>212.059</v>
       </c>
       <c r="K2" t="n">
-        <v>261.674</v>
+        <v>257.698</v>
       </c>
       <c r="L2" t="n">
-        <v>323.45</v>
+        <v>318.682</v>
       </c>
       <c r="M2" t="n">
-        <v>392.948</v>
+        <v>387.289</v>
       </c>
       <c r="N2" t="n">
-        <v>470.1679999999999</v>
+        <v>463.519</v>
       </c>
       <c r="O2" t="n">
-        <v>531.944</v>
+        <v>524.404</v>
       </c>
       <c r="P2" t="n">
-        <v>585.9979999999999</v>
+        <v>577.6659999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>632.3299999999999</v>
+        <v>623.3049999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>650.348</v>
+        <v>640.828</v>
       </c>
       <c r="S2" t="n">
-        <v>639.8429494949495</v>
+        <v>639.810101010101</v>
       </c>
       <c r="T2" t="n">
-        <v>609.6929292929293</v>
+        <v>608.0929292929293</v>
       </c>
       <c r="U2" t="n">
-        <v>491.5111111111111</v>
+        <v>489.9111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>393.0262626262626</v>
+        <v>391.4262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>314.2383838383838</v>
+        <v>312.6383838383838</v>
       </c>
       <c r="X2" t="n">
-        <v>261.7131313131313</v>
+        <v>260.1131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>222.3191919191919</v>
+        <v>220.7191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.9252525252525</v>
+        <v>181.3252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>163.2282828282828</v>
+        <v>161.6282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="H3" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="I3" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="J3" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="K3" t="n">
-        <v>212.768</v>
+        <v>128.8</v>
       </c>
       <c r="L3" t="n">
-        <v>305.432</v>
+        <v>200.334606060606</v>
       </c>
       <c r="M3" t="n">
-        <v>308.6525858585859</v>
+        <v>279.138606060606</v>
       </c>
       <c r="N3" t="n">
-        <v>365.2805858585859</v>
+        <v>334.974606060606</v>
       </c>
       <c r="O3" t="n">
-        <v>437.3525858585859</v>
+        <v>406.353606060606</v>
       </c>
       <c r="P3" t="n">
-        <v>460.5185858585859</v>
+        <v>429.024606060606</v>
       </c>
       <c r="Q3" t="n">
-        <v>486.2585858585859</v>
+        <v>454.269606060606</v>
       </c>
       <c r="R3" t="n">
-        <v>486.2585858585859</v>
+        <v>484.860606060606</v>
       </c>
       <c r="S3" t="n">
-        <v>465.2484848484848</v>
+        <v>463.6484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>333.9353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>333.9353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>333.9353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>255.1474747474747</v>
+        <v>253.5474747474748</v>
       </c>
       <c r="X3" t="n">
-        <v>255.1474747474747</v>
+        <v>253.5474747474748</v>
       </c>
       <c r="Y3" t="n">
-        <v>215.7535353535353</v>
+        <v>214.1535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>169.7939393939394</v>
+        <v>168.1939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="I4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="J4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="K4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="L4" t="n">
-        <v>202.472</v>
+        <v>200.179</v>
       </c>
       <c r="M4" t="n">
-        <v>202.472</v>
+        <v>218.7742929292929</v>
       </c>
       <c r="N4" t="n">
-        <v>284.84</v>
+        <v>300.3502929292929</v>
       </c>
       <c r="O4" t="n">
-        <v>356.912</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>363.0332929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>363.0332929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>373.3292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>373.3292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6222222222222</v>
+        <v>201.0222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3383,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>9.692280000000011</v>
       </c>
       <c r="T2" t="n">
-        <v>1.351480000000045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76023.241008</v>
+        <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>9272.289645445851</v>
+        <v>7066.221906540153</v>
       </c>
       <c r="E2" t="n">
-        <v>2370</v>
+        <v>750</v>
       </c>
       <c r="F2" t="n">
-        <v>20427.00162038327</v>
+        <v>22010.71960409202</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1495,28 +1495,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72.25717783899596</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>42.1831241710029</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1727,46 +1727,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.8</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>28.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.8</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>46.1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>69.3</v>
+        <v>65.7</v>
       </c>
       <c r="N2" t="n">
-        <v>77</v>
+        <v>93.93427201306108</v>
       </c>
       <c r="O2" t="n">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1819,25 +1819,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>72.25717783899596</v>
+        <v>90</v>
       </c>
       <c r="M3" t="n">
-        <v>79.59999999999999</v>
+        <v>39.33079277624775</v>
       </c>
       <c r="N3" t="n">
-        <v>56.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>22.9</v>
+        <v>115.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.5</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>30.9</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>145.3831241710018</v>
       </c>
       <c r="L4" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>18.7831241710029</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.007719999999991</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>187.8909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>168.1939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>155.0626262626263</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>141.9313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>141.472</v>
+        <v>261.075</v>
       </c>
       <c r="H2" t="n">
-        <v>169.39</v>
+        <v>261.075</v>
       </c>
       <c r="I2" t="n">
-        <v>189.487</v>
+        <v>261.075</v>
       </c>
       <c r="J2" t="n">
-        <v>212.059</v>
+        <v>409.575</v>
       </c>
       <c r="K2" t="n">
-        <v>257.698</v>
+        <v>409.575</v>
       </c>
       <c r="L2" t="n">
-        <v>318.682</v>
+        <v>409.575</v>
       </c>
       <c r="M2" t="n">
-        <v>387.289</v>
+        <v>474.6180000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>463.519</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>524.404</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>577.6659999999999</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>623.3049999999999</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>640.828</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>639.810101010101</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>608.0929292929293</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>489.9111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>391.4262626262627</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>312.6383838383838</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>260.1131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.7191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>181.3252525252525</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>161.6282828282828</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>128.8</v>
+        <v>159.6</v>
       </c>
       <c r="J3" t="n">
-        <v>128.8</v>
+        <v>159.6</v>
       </c>
       <c r="K3" t="n">
-        <v>128.8</v>
+        <v>159.6</v>
       </c>
       <c r="L3" t="n">
-        <v>200.334606060606</v>
+        <v>248.7</v>
       </c>
       <c r="M3" t="n">
-        <v>279.138606060606</v>
+        <v>287.6374848484853</v>
       </c>
       <c r="N3" t="n">
-        <v>334.974606060606</v>
+        <v>287.6374848484853</v>
       </c>
       <c r="O3" t="n">
-        <v>406.353606060606</v>
+        <v>287.6374848484853</v>
       </c>
       <c r="P3" t="n">
-        <v>429.024606060606</v>
+        <v>402.3784848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.269606060606</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>484.860606060606</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>463.6484848484848</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>253.5474747474748</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>253.5474747474748</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.1535353535353</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.1939393939394</v>
+        <v>396.4646464646461</v>
       </c>
       <c r="C4" t="n">
-        <v>148.4969696969697</v>
+        <v>376.7676767676771</v>
       </c>
       <c r="D4" t="n">
-        <v>148.4969696969697</v>
+        <v>376.7676767676771</v>
       </c>
       <c r="E4" t="n">
-        <v>148.4969696969697</v>
+        <v>376.7676767676771</v>
       </c>
       <c r="F4" t="n">
-        <v>148.4969696969697</v>
+        <v>376.7676767676771</v>
       </c>
       <c r="G4" t="n">
-        <v>128.8</v>
+        <v>357.0707070707082</v>
       </c>
       <c r="H4" t="n">
-        <v>128.8</v>
+        <v>357.0707070707082</v>
       </c>
       <c r="I4" t="n">
-        <v>128.8</v>
+        <v>357.0707070707082</v>
       </c>
       <c r="J4" t="n">
-        <v>128.8</v>
+        <v>366.9707070707082</v>
       </c>
       <c r="K4" t="n">
-        <v>128.8</v>
+        <v>510.9</v>
       </c>
       <c r="L4" t="n">
-        <v>200.179</v>
+        <v>510.9</v>
       </c>
       <c r="M4" t="n">
-        <v>218.7742929292929</v>
+        <v>510.9</v>
       </c>
       <c r="N4" t="n">
-        <v>300.3502929292929</v>
+        <v>510.9</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7292929292929</v>
+        <v>510.9</v>
       </c>
       <c r="P4" t="n">
-        <v>371.7292929292929</v>
+        <v>510.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>371.7292929292929</v>
+        <v>570.3</v>
       </c>
       <c r="R4" t="n">
-        <v>371.7292929292929</v>
+        <v>600</v>
       </c>
       <c r="S4" t="n">
-        <v>371.7292929292929</v>
+        <v>600</v>
       </c>
       <c r="T4" t="n">
-        <v>240.4161616161616</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="U4" t="n">
-        <v>240.4161616161616</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="V4" t="n">
-        <v>240.4161616161616</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="W4" t="n">
-        <v>240.4161616161616</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="X4" t="n">
-        <v>240.4161616161616</v>
+        <v>468.6868686868687</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.0222222222222</v>
+        <v>429.2929292929289</v>
       </c>
     </row>
   </sheetData>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>91.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3032,25 +3032,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>119.9342720130611</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>145.3831241710018</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3347,16 +3347,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3380,13 +3380,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="S2" t="n">
-        <v>9.692280000000011</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3439,28 +3439,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3701,16 +3701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>62.73079277624775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3855,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673711</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540153</v>
+        <v>10661.60663177227</v>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>22010.71960409202</v>
+        <v>20022.81757366193</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>62.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>111.934272013061</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="M2" t="n">
-        <v>65.7</v>
+        <v>28.8</v>
       </c>
       <c r="N2" t="n">
-        <v>93.93427201306108</v>
+        <v>32</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>57.8</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>43.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>90</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>39.33079277624775</v>
+        <v>34.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>105.8307927762476</v>
       </c>
       <c r="P3" t="n">
-        <v>115.9</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>15.8</v>
       </c>
       <c r="K4" t="n">
-        <v>145.3831241710018</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>28.18312417100182</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>15.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>261.075</v>
+        <v>181.677</v>
       </c>
       <c r="H2" t="n">
-        <v>261.075</v>
+        <v>191.775</v>
       </c>
       <c r="I2" t="n">
-        <v>261.075</v>
+        <v>191.775</v>
       </c>
       <c r="J2" t="n">
-        <v>409.575</v>
+        <v>302.5899292929304</v>
       </c>
       <c r="K2" t="n">
-        <v>409.575</v>
+        <v>317.0439292929304</v>
       </c>
       <c r="L2" t="n">
-        <v>409.575</v>
+        <v>342.3879292929304</v>
       </c>
       <c r="M2" t="n">
-        <v>474.6180000000001</v>
+        <v>370.8999292929304</v>
       </c>
       <c r="N2" t="n">
-        <v>567.6129292929305</v>
+        <v>402.5799292929304</v>
       </c>
       <c r="O2" t="n">
-        <v>567.6129292929305</v>
+        <v>423.3699292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>567.6129292929305</v>
+        <v>440.9919292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>567.6129292929305</v>
+        <v>455.4459292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>567.6129292929305</v>
+        <v>498.9069292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>567.6129292929305</v>
+        <v>556.1289292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>159.6</v>
+        <v>142.968</v>
       </c>
       <c r="J3" t="n">
-        <v>159.6</v>
+        <v>177.42</v>
       </c>
       <c r="K3" t="n">
-        <v>159.6</v>
+        <v>223.356</v>
       </c>
       <c r="L3" t="n">
-        <v>248.7</v>
+        <v>275.034</v>
       </c>
       <c r="M3" t="n">
-        <v>287.6374848484853</v>
+        <v>309.288</v>
       </c>
       <c r="N3" t="n">
-        <v>287.6374848484853</v>
+        <v>329.484</v>
       </c>
       <c r="O3" t="n">
-        <v>287.6374848484853</v>
+        <v>434.2564848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>402.3784848484852</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>425.1484848484852</v>
+        <v>437.6224848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>396.4646464646461</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>376.7676767676771</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>376.7676767676771</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>376.7676767676771</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>376.7676767676771</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>357.0707070707082</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>357.0707070707082</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>357.0707070707082</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>366.9707070707082</v>
+        <v>135.642</v>
       </c>
       <c r="K4" t="n">
-        <v>510.9</v>
+        <v>158.61</v>
       </c>
       <c r="L4" t="n">
-        <v>510.9</v>
+        <v>198.804</v>
       </c>
       <c r="M4" t="n">
-        <v>510.9</v>
+        <v>226.7052929292918</v>
       </c>
       <c r="N4" t="n">
-        <v>510.9</v>
+        <v>272.6412929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>510.9</v>
+        <v>312.8352929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>510.9</v>
+        <v>335.8032929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>570.3</v>
+        <v>347.2872929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>600</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>600</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>468.6868686868687</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>468.6868686868687</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>468.6868686868687</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>468.6868686868687</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>468.6868686868687</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>429.2929292929289</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>91.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3357,25 +3357,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>119.9342720130611</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>65.23079277624761</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>145.3831241710018</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
         <v>58.5</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>89.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3764,25 +3764,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>10</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>114</v>
+        <v>57.63427201306106</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4026,13 +4026,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>13.2</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
         <v>32</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62.73079277624775</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>95.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>5.183124171001815</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797672689</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60663171701</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>20022.81757367622</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2141,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>49.7</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.234272012765462</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>117.9</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>43.9</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>50.83079277624751</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2465,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>30.98312417100175</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909172</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939482</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626344</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313205</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.7620000000066</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>172.9650000000066</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>172.9650000000066</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>180.1269292926444</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>194.5809292926444</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>343.0809292926526</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>459.8019292926566</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>491.4819292926566</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>512.2719292926566</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>529.8939292926566</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>544.3479292926565</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>587.8089292926566</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>587.8089292926566</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292926566</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626259906</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>303.8383838383916</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131398</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252585</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282895</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969756</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969756</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969756</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.9680000000067</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>177.4200000000067</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>223.3560000000067</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>275.0340000000067</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>325.3564848484917</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>345.5524848484918</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>385.7464848484918</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>386.1424848484918</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>437.6224848484918</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484918</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484918</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353605</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353605</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353605</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>244.747474747481</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>244.747474747481</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939445</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969756</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969756</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969756</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969756</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>125.7420000000067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>148.7100000000067</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>188.9040000000066</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>211.6740000000067</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>257.6100000000067</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>297.8040000000067</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>320.7720000000067</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>332.2560000000067</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292984</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292984</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161671</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161671</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161671</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161671</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161671</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3634,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3693,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>16.23079277624746</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -3711,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3785,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>25.18312417100175</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3925,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3940,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>89.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3955,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4029,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -4252,16 +4002,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.43427201276547</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>124.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10661.60663177227</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>20022.81757366193</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>62.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>10.2</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>111.934272013061</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>43.9</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>57.8</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>105.8307927762476</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>28.18312417100182</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>181.677</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>191.775</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>191.775</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>302.5899292929304</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>317.0439292929304</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>342.3879292929304</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>370.8999292929304</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>402.5799292929304</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>423.3699292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>440.9919292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>455.4459292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>498.9069292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>556.1289292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>142.968</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>177.42</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>223.356</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>275.034</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>309.288</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>329.484</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>434.2564848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>437.6224848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>135.642</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>158.61</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>198.804</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>226.7052929292918</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>272.6412929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>312.8352929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>335.8032929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>347.2872929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>65.23079277624761</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57.63427201306106</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5.183124171001815</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>77388.66797673708</v>
       </c>
       <c r="C2" t="n">
         <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60663177227</v>
+        <v>14805.93863177227</v>
       </c>
       <c r="E2" t="n">
-        <v>1620</v>
+        <v>750</v>
       </c>
       <c r="F2" t="n">
-        <v>20022.81757366193</v>
+        <v>18983.92666487407</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.3</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>10.2</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111.934272013061</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.6</v>
+        <v>150</v>
       </c>
       <c r="M2" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>74.93427201306113</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>150</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>32</v>
-      </c>
-      <c r="O2" t="n">
-        <v>21</v>
-      </c>
-      <c r="P2" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="S2" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>43.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>15.23079277624771</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>150</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>105.8307927762476</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>150</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8</v>
+        <v>64.38312417100184</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>28.18312417100182</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>15.8</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>181.677</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>191.775</v>
+        <v>196.428</v>
       </c>
       <c r="I2" t="n">
-        <v>191.775</v>
+        <v>196.428</v>
       </c>
       <c r="J2" t="n">
-        <v>302.5899292929304</v>
+        <v>196.428</v>
       </c>
       <c r="K2" t="n">
-        <v>317.0439292929304</v>
+        <v>196.428</v>
       </c>
       <c r="L2" t="n">
-        <v>342.3879292929304</v>
+        <v>344.928</v>
       </c>
       <c r="M2" t="n">
-        <v>370.8999292929304</v>
+        <v>344.928</v>
       </c>
       <c r="N2" t="n">
-        <v>402.5799292929304</v>
+        <v>344.928</v>
       </c>
       <c r="O2" t="n">
-        <v>423.3699292929305</v>
+        <v>419.1129292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>440.9919292929305</v>
+        <v>419.1129292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>455.4459292929305</v>
+        <v>419.1129292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>498.9069292929305</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>556.1289292929305</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>142.968</v>
+        <v>135.0784848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>177.42</v>
+        <v>135.0784848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>223.356</v>
+        <v>283.5784848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>275.034</v>
+        <v>283.5784848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>309.288</v>
+        <v>283.5784848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>329.484</v>
+        <v>283.5784848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>434.2564848484852</v>
+        <v>283.5784848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>434.6524848484852</v>
+        <v>283.5784848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>437.6224848484852</v>
+        <v>306.3484848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>135.642</v>
+        <v>183.7392929292918</v>
       </c>
       <c r="K4" t="n">
-        <v>158.61</v>
+        <v>223.3392929292918</v>
       </c>
       <c r="L4" t="n">
-        <v>198.804</v>
+        <v>223.3392929292918</v>
       </c>
       <c r="M4" t="n">
-        <v>226.7052929292918</v>
+        <v>223.3392929292918</v>
       </c>
       <c r="N4" t="n">
-        <v>272.6412929292918</v>
+        <v>223.3392929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>312.8352929292918</v>
+        <v>223.3392929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>335.8032929292918</v>
+        <v>262.9392929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>347.2872929292918</v>
+        <v>282.7392929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.3</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65.23079277624761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>34.38312417100184</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3675,34 +3675,34 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>39</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>79.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
         <v>48.7</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15.23079277624771</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3776,10 +3776,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -3838,13 +3838,13 @@
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
         <v>10</v>
@@ -4005,13 +4005,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.63427201306106</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>17.33427201306118</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>94.8</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>13.2</v>
       </c>
       <c r="T2" t="n">
         <v>32</v>
@@ -4091,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5.183124171001815</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673708</v>
+        <v>80576.48655035206</v>
       </c>
       <c r="C2" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="D2" t="n">
-        <v>14805.93863177227</v>
+        <v>16153.46139577594</v>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>955</v>
       </c>
       <c r="F2" t="n">
-        <v>18983.92666487407</v>
+        <v>19566.23540190549</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="H2" t="n">
         <v>50.7</v>
       </c>
-      <c r="H2" t="n">
-        <v>26.5</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>150</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="O2" t="n">
-        <v>74.93427201306113</v>
+        <v>1.673798591981621</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>150</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.23079277624771</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2153,16 +2153,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.797765534129415</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>150</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>64.38312417100184</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>40.58312417100177</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>211.8909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>192.1939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>179.0626262626278</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>165.9313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>174.679</v>
       </c>
       <c r="H2" t="n">
-        <v>196.428</v>
+        <v>224.872</v>
       </c>
       <c r="I2" t="n">
-        <v>196.428</v>
+        <v>241.504</v>
       </c>
       <c r="J2" t="n">
-        <v>196.428</v>
+        <v>257.8390000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>196.428</v>
+        <v>337.633</v>
       </c>
       <c r="L2" t="n">
-        <v>344.928</v>
+        <v>450.889</v>
       </c>
       <c r="M2" t="n">
-        <v>344.928</v>
+        <v>450.889</v>
       </c>
       <c r="N2" t="n">
-        <v>344.928</v>
+        <v>568.6990000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>419.1129292929305</v>
+        <v>570.3560606060619</v>
       </c>
       <c r="P2" t="n">
-        <v>419.1129292929305</v>
+        <v>664.3070606060619</v>
       </c>
       <c r="Q2" t="n">
-        <v>419.1129292929305</v>
+        <v>744.1010606060619</v>
       </c>
       <c r="R2" t="n">
-        <v>567.6129292929305</v>
+        <v>763.4060606060618</v>
       </c>
       <c r="S2" t="n">
-        <v>567.6129292929305</v>
+        <v>721.3858585858598</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>632.0929292929304</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>513.9111111111112</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>415.4262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>336.638383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>284.1131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>244.7191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>205.3252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>185.6282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="I3" t="n">
-        <v>135.0784848484852</v>
+        <v>235.168</v>
       </c>
       <c r="J3" t="n">
-        <v>135.0784848484852</v>
+        <v>241.108</v>
       </c>
       <c r="K3" t="n">
-        <v>283.5784848484852</v>
+        <v>249.028</v>
       </c>
       <c r="L3" t="n">
-        <v>283.5784848484852</v>
+        <v>409.408</v>
       </c>
       <c r="M3" t="n">
-        <v>283.5784848484852</v>
+        <v>409.408</v>
       </c>
       <c r="N3" t="n">
-        <v>283.5784848484852</v>
+        <v>409.408</v>
       </c>
       <c r="O3" t="n">
-        <v>283.5784848484852</v>
+        <v>418.1177878787881</v>
       </c>
       <c r="P3" t="n">
-        <v>283.5784848484852</v>
+        <v>450.2927878787881</v>
       </c>
       <c r="Q3" t="n">
-        <v>306.3484848484852</v>
+        <v>488.9027878787882</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>550.6787878787882</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>487.6484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>277.5474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>277.5474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>238.1535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>192.1939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="J4" t="n">
-        <v>183.7392929292918</v>
+        <v>170.62</v>
       </c>
       <c r="K4" t="n">
-        <v>223.3392929292918</v>
+        <v>174.58</v>
       </c>
       <c r="L4" t="n">
-        <v>223.3392929292918</v>
+        <v>181.51</v>
       </c>
       <c r="M4" t="n">
-        <v>223.3392929292918</v>
+        <v>181.51</v>
       </c>
       <c r="N4" t="n">
-        <v>223.3392929292918</v>
+        <v>324.0700000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>223.3392929292918</v>
+        <v>331</v>
       </c>
       <c r="P4" t="n">
-        <v>262.9392929292918</v>
+        <v>334.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>282.7392929292918</v>
+        <v>375.1372929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>225.0222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,46 +3348,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>108.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.673798591981625</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R2" t="n">
-        <v>40.3</v>
+        <v>40.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,34 +3431,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.38312417100184</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>32.98312417100177</v>
       </c>
       <c r="R4" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,46 +3672,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>79.2</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4</v>
+        <v>8.1</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>88.8</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.23079277624771</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4008,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
-        <v>91.59999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4020,22 +4020,22 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>17.33427201306118</v>
+        <v>20.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="R2" t="n">
-        <v>94.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>13.2</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4091,25 +4091,25 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.797765534129416</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>16.3</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>2.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -525,76 +525,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.3500255076014014</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80576.48655035206</v>
+        <v>73275.79542903793</v>
       </c>
       <c r="C2" t="n">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>16153.46139577594</v>
+        <v>15331.95682801659</v>
       </c>
       <c r="E2" t="n">
-        <v>955</v>
+        <v>2025</v>
       </c>
       <c r="F2" t="n">
-        <v>19566.23540190549</v>
+        <v>17678.65777533274</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>34</v>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-30.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-18.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-12.2</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-12.2</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-12.2</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>23.29999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>52.7</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>30.8</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>33.3</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>117.6</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>132.3</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>114</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>99.30000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>24.7</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-35.2</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-80.40000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-109.8</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-91.5</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-73.2</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-48.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-36.6</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-30.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-18.3</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-12.2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>-18.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1499,28 +1499,28 @@
         <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>153.1</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>105.4</v>
       </c>
       <c r="O3" t="n">
         <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>36.89999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="R3" t="n">
         <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-56</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-122</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-73.2</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-36.6</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-30.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-18.3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-18.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>111.5</v>
       </c>
       <c r="N4" t="n">
         <v>166.4</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-122</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-36.6</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1814,34 +1814,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>28.14093459851028</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>13.08262422201632</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>16.2</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>27.6</v>
       </c>
       <c r="I2" t="n">
-        <v>16.8</v>
+        <v>20.1</v>
       </c>
       <c r="J2" t="n">
-        <v>16.5</v>
+        <v>21.4</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>40.3</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>52.60000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>58.3</v>
       </c>
       <c r="N2" t="n">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="O2" t="n">
-        <v>1.673798591981621</v>
+        <v>51.7</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>33.65002550760139</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>17.9</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>47.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>63.2</v>
       </c>
       <c r="L3" t="n">
-        <v>162</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>59.20000000000073</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="O3" t="n">
-        <v>8.797765534129415</v>
+        <v>55.3</v>
       </c>
       <c r="P3" t="n">
-        <v>32.5</v>
+        <v>15.29999999999927</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>6.140934598510276</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>13.08262422201632</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>55.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>43.40000000000073</v>
       </c>
       <c r="N4" t="n">
-        <v>144</v>
+        <v>63.2</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>55.3</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40.58312417100177</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>23.5</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>11.3</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>41.6</v>
+        <v>7.900000000000006</v>
       </c>
       <c r="T2" t="n">
-        <v>88.40000000000001</v>
+        <v>57.6</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>102.8</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>84.5</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>66.2</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>41.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>18.29999999999927</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>12.20000000000073</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>18.29999999999927</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.4</v>
+        <v>40.59999999999964</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>73.20000000000073</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>36.60000000000036</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>18.29999999999927</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>18.29999999999927</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>36.60000000000036</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.8909090909106</v>
+        <v>141.9191919191918</v>
       </c>
       <c r="C2" t="n">
-        <v>192.1939393939416</v>
+        <v>130.5050505050504</v>
       </c>
       <c r="D2" t="n">
-        <v>179.0626262626278</v>
+        <v>125.2525252525251</v>
       </c>
       <c r="E2" t="n">
-        <v>165.9313131313139</v>
+        <v>119.9999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>152.8</v>
+        <v>114.7474747474746</v>
       </c>
       <c r="G2" t="n">
-        <v>174.679</v>
+        <v>130.7854747474746</v>
       </c>
       <c r="H2" t="n">
-        <v>224.872</v>
+        <v>158.1094747474746</v>
       </c>
       <c r="I2" t="n">
-        <v>241.504</v>
+        <v>178.0084747474746</v>
       </c>
       <c r="J2" t="n">
-        <v>257.8390000000001</v>
+        <v>199.1944747474746</v>
       </c>
       <c r="K2" t="n">
-        <v>337.633</v>
+        <v>239.0914747474746</v>
       </c>
       <c r="L2" t="n">
-        <v>450.889</v>
+        <v>291.1654747474746</v>
       </c>
       <c r="M2" t="n">
-        <v>450.889</v>
+        <v>348.8824747474746</v>
       </c>
       <c r="N2" t="n">
-        <v>568.6990000000001</v>
+        <v>412.2424747474746</v>
       </c>
       <c r="O2" t="n">
-        <v>570.3560606060619</v>
+        <v>463.4254747474746</v>
       </c>
       <c r="P2" t="n">
-        <v>664.3070606060619</v>
+        <v>508.9654747474746</v>
       </c>
       <c r="Q2" t="n">
-        <v>744.1010606060619</v>
+        <v>542.279</v>
       </c>
       <c r="R2" t="n">
-        <v>763.4060606060618</v>
+        <v>560</v>
       </c>
       <c r="S2" t="n">
-        <v>721.3858585858598</v>
+        <v>552.020202020202</v>
       </c>
       <c r="T2" t="n">
-        <v>632.0929292929304</v>
+        <v>493.8383838383838</v>
       </c>
       <c r="U2" t="n">
-        <v>513.9111111111112</v>
+        <v>389.9999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>415.4262626262645</v>
+        <v>304.6464646464646</v>
       </c>
       <c r="W2" t="n">
-        <v>336.638383838385</v>
+        <v>237.7777777777777</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1131313131332</v>
+        <v>195.5555555555554</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.7191919191934</v>
+        <v>165.6565656565655</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>205.3252525252518</v>
+        <v>161.2929292929286</v>
       </c>
       <c r="C3" t="n">
-        <v>185.6282828282828</v>
+        <v>142.8080808080808</v>
       </c>
       <c r="D3" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="E3" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="F3" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="G3" t="n">
-        <v>152.8</v>
+        <v>112</v>
       </c>
       <c r="H3" t="n">
-        <v>152.8</v>
+        <v>112</v>
       </c>
       <c r="I3" t="n">
-        <v>235.168</v>
+        <v>112</v>
       </c>
       <c r="J3" t="n">
-        <v>241.108</v>
+        <v>158.926</v>
       </c>
       <c r="K3" t="n">
-        <v>249.028</v>
+        <v>221.494</v>
       </c>
       <c r="L3" t="n">
-        <v>409.408</v>
+        <v>291.883</v>
       </c>
       <c r="M3" t="n">
-        <v>409.408</v>
+        <v>350.4910000000008</v>
       </c>
       <c r="N3" t="n">
-        <v>409.408</v>
+        <v>391.2790000000008</v>
       </c>
       <c r="O3" t="n">
-        <v>418.1177878787881</v>
+        <v>446.0260000000008</v>
       </c>
       <c r="P3" t="n">
-        <v>450.2927878787881</v>
+        <v>461.1730000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>488.9027878787882</v>
+        <v>467.2525252525252</v>
       </c>
       <c r="R3" t="n">
-        <v>550.6787878787882</v>
+        <v>467.2525252525252</v>
       </c>
       <c r="S3" t="n">
-        <v>487.6484848484852</v>
+        <v>426.2424242424246</v>
       </c>
       <c r="T3" t="n">
-        <v>356.3353535353539</v>
+        <v>303.0101010101014</v>
       </c>
       <c r="U3" t="n">
-        <v>356.3353535353539</v>
+        <v>303.0101010101014</v>
       </c>
       <c r="V3" t="n">
-        <v>356.3353535353539</v>
+        <v>303.0101010101014</v>
       </c>
       <c r="W3" t="n">
-        <v>277.5474747474744</v>
+        <v>229.0707070707067</v>
       </c>
       <c r="X3" t="n">
-        <v>277.5474747474744</v>
+        <v>229.0707070707067</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.1535353535346</v>
+        <v>192.1010101010094</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>192.1939393939379</v>
+        <v>148.9696969696955</v>
       </c>
       <c r="C4" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="D4" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="E4" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="F4" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="G4" t="n">
-        <v>152.8</v>
+        <v>112</v>
       </c>
       <c r="H4" t="n">
-        <v>152.8</v>
+        <v>112</v>
       </c>
       <c r="I4" t="n">
-        <v>152.8</v>
+        <v>112</v>
       </c>
       <c r="J4" t="n">
-        <v>170.62</v>
+        <v>112</v>
       </c>
       <c r="K4" t="n">
-        <v>174.58</v>
+        <v>124.9517979797962</v>
       </c>
       <c r="L4" t="n">
-        <v>181.51</v>
+        <v>179.6987979797962</v>
       </c>
       <c r="M4" t="n">
-        <v>181.51</v>
+        <v>222.6647979797969</v>
       </c>
       <c r="N4" t="n">
-        <v>324.0700000000001</v>
+        <v>285.2327979797969</v>
       </c>
       <c r="O4" t="n">
-        <v>331</v>
+        <v>339.9797979797969</v>
       </c>
       <c r="P4" t="n">
-        <v>334.96</v>
+        <v>339.9797979797969</v>
       </c>
       <c r="Q4" t="n">
-        <v>375.1372929292918</v>
+        <v>339.9797979797969</v>
       </c>
       <c r="R4" t="n">
-        <v>395.7292929292918</v>
+        <v>339.9797979797969</v>
       </c>
       <c r="S4" t="n">
-        <v>395.7292929292918</v>
+        <v>339.9797979797969</v>
       </c>
       <c r="T4" t="n">
-        <v>264.4161616161605</v>
+        <v>216.7474747474737</v>
       </c>
       <c r="U4" t="n">
-        <v>264.4161616161605</v>
+        <v>216.7474747474737</v>
       </c>
       <c r="V4" t="n">
-        <v>264.4161616161605</v>
+        <v>216.7474747474737</v>
       </c>
       <c r="W4" t="n">
-        <v>264.4161616161605</v>
+        <v>216.7474747474737</v>
       </c>
       <c r="X4" t="n">
-        <v>264.4161616161605</v>
+        <v>216.7474747474737</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.0222222222222</v>
+        <v>179.7777777777763</v>
       </c>
     </row>
   </sheetData>
@@ -3348,40 +3348,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.673798591981625</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.98312417100177</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4008,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4020,19 +4020,19 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4097,16 +4097,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.797765534129416</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>77388.66797672689</v>
       </c>
       <c r="C2" t="n">
         <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60663177227</v>
+        <v>10661.60663171701</v>
       </c>
       <c r="E2" t="n">
         <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>20022.81757366193</v>
+        <v>20022.81757367622</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2052,25 +2302,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.3</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>10.2</v>
+        <v>49.7</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111.934272013061</v>
+        <v>7.234272012765462</v>
       </c>
       <c r="K2" t="n">
         <v>14.6</v>
       </c>
       <c r="L2" t="n">
-        <v>25.6</v>
+        <v>150</v>
       </c>
       <c r="M2" t="n">
-        <v>28.8</v>
+        <v>117.9</v>
       </c>
       <c r="N2" t="n">
         <v>32</v>
@@ -2088,10 +2338,10 @@
         <v>43.9</v>
       </c>
       <c r="S2" t="n">
-        <v>57.8</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>43.6</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2147,19 +2397,19 @@
         <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>34.6</v>
+        <v>50.83079277624751</v>
       </c>
       <c r="N3" t="n">
         <v>20.4</v>
       </c>
       <c r="O3" t="n">
-        <v>105.8307927762476</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
         <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
         <v>17.4</v>
@@ -2215,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
         <v>23.2</v>
@@ -2224,7 +2474,7 @@
         <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>28.18312417100182</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
         <v>46.4</v>
@@ -2239,7 +2489,7 @@
         <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>15.8</v>
+        <v>30.98312417100175</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2685,76 +2935,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>179.0909090909172</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>159.3939393939482</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>146.2626262626344</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>133.1313131313205</v>
       </c>
       <c r="F2" t="n">
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>181.677</v>
+        <v>123.7620000000066</v>
       </c>
       <c r="H2" t="n">
-        <v>191.775</v>
+        <v>172.9650000000066</v>
       </c>
       <c r="I2" t="n">
-        <v>191.775</v>
+        <v>172.9650000000066</v>
       </c>
       <c r="J2" t="n">
-        <v>302.5899292929304</v>
+        <v>180.1269292926444</v>
       </c>
       <c r="K2" t="n">
-        <v>317.0439292929304</v>
+        <v>194.5809292926444</v>
       </c>
       <c r="L2" t="n">
-        <v>342.3879292929304</v>
+        <v>343.0809292926526</v>
       </c>
       <c r="M2" t="n">
-        <v>370.8999292929304</v>
+        <v>459.8019292926566</v>
       </c>
       <c r="N2" t="n">
-        <v>402.5799292929304</v>
+        <v>491.4819292926566</v>
       </c>
       <c r="O2" t="n">
-        <v>423.3699292929305</v>
+        <v>512.2719292926566</v>
       </c>
       <c r="P2" t="n">
-        <v>440.9919292929305</v>
+        <v>529.8939292926566</v>
       </c>
       <c r="Q2" t="n">
-        <v>455.4459292929305</v>
+        <v>544.3479292926565</v>
       </c>
       <c r="R2" t="n">
-        <v>498.9069292929305</v>
+        <v>587.8089292926566</v>
       </c>
       <c r="S2" t="n">
-        <v>556.1289292929305</v>
+        <v>587.8089292926566</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>599.2929292926566</v>
       </c>
       <c r="U2" t="n">
         <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>382.6262626259906</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>303.8383838383916</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>251.3131313131398</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>211.9191919192</v>
       </c>
     </row>
     <row r="3">
@@ -2762,19 +3012,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>172.5252525252585</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>152.8282828282895</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969756</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969756</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969756</v>
       </c>
       <c r="G3" t="n">
         <v>120</v>
@@ -2783,55 +3033,55 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>142.968</v>
+        <v>142.9680000000067</v>
       </c>
       <c r="J3" t="n">
-        <v>177.42</v>
+        <v>177.4200000000067</v>
       </c>
       <c r="K3" t="n">
-        <v>223.356</v>
+        <v>223.3560000000067</v>
       </c>
       <c r="L3" t="n">
-        <v>275.034</v>
+        <v>275.0340000000067</v>
       </c>
       <c r="M3" t="n">
-        <v>309.288</v>
+        <v>325.3564848484917</v>
       </c>
       <c r="N3" t="n">
-        <v>329.484</v>
+        <v>345.5524848484918</v>
       </c>
       <c r="O3" t="n">
-        <v>434.2564848484852</v>
+        <v>385.7464848484918</v>
       </c>
       <c r="P3" t="n">
-        <v>434.6524848484852</v>
+        <v>386.1424848484918</v>
       </c>
       <c r="Q3" t="n">
-        <v>437.6224848484852</v>
+        <v>437.6224848484918</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>454.8484848484918</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>454.8484848484918</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>323.5353535353605</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>323.5353535353605</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>323.5353535353605</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>244.747474747481</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>244.747474747481</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>205.3535353535413</v>
       </c>
     </row>
     <row r="4">
@@ -2839,19 +3089,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>159.3939393939445</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969756</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969756</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969756</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>139.6969696969756</v>
       </c>
       <c r="G4" t="n">
         <v>120</v>
@@ -2863,49 +3113,49 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>135.642</v>
+        <v>125.7420000000067</v>
       </c>
       <c r="K4" t="n">
-        <v>158.61</v>
+        <v>148.7100000000067</v>
       </c>
       <c r="L4" t="n">
-        <v>198.804</v>
+        <v>188.9040000000066</v>
       </c>
       <c r="M4" t="n">
-        <v>226.7052929292918</v>
+        <v>211.6740000000067</v>
       </c>
       <c r="N4" t="n">
-        <v>272.6412929292918</v>
+        <v>257.6100000000067</v>
       </c>
       <c r="O4" t="n">
-        <v>312.8352929292918</v>
+        <v>297.8040000000067</v>
       </c>
       <c r="P4" t="n">
-        <v>335.8032929292918</v>
+        <v>320.7720000000067</v>
       </c>
       <c r="Q4" t="n">
-        <v>347.2872929292918</v>
+        <v>332.2560000000067</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>362.9292929292984</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>362.9292929292984</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161671</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161671</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161671</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161671</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>231.6161616161671</v>
       </c>
       <c r="Y4" t="n">
         <v>192.2222222222222</v>
@@ -3384,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="T2" t="n">
         <v>34</v>
@@ -3443,13 +3693,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>16.23079277624746</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65.23079277624761</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3461,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3535,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>25.18312417100175</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,16 +3922,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3690,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -3708,7 +3958,7 @@
         <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3779,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3859,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,22 +4246,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>57.63427201306106</v>
+        <v>11.43427201276547</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>124.4</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4032,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4109,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4168,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5.183124171001815</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,22 +523,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>61.20999999984885</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>122.4000000056886</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91.59799999699089</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>115.75800000459</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -573,25 +571,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>122.4000000200063</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>122.3999999799501</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>4.654793883673848e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>61.20999999324344</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -668,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.764988155628089e-09</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -688,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5.084075382910671e-09</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -748,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>61.20999999999039</v>
       </c>
     </row>
   </sheetData>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80576.48655035019</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16153.46139577555</v>
-      </c>
-      <c r="E2" t="n">
-        <v>955</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19502.77873906278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1200,10 +808,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>11211</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +824,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>5349</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-996.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-866.895</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-775.78</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-566.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-390.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-468.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-559.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-699.625</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-920.71</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1118.445</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-620.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-335.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>27.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>193.87</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>379.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>534.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>483.6749999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>452.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>367.57</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>149.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-161.885</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-461.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-820.285</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-861.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-428.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-144.71</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.98000000000013</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>278.04</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>230.71</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>187.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>79.84499999999994</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-180.765</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-573.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-991.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1978,34 +1486,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>751.1370000000293</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2107.668000000059</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3475.410000000117</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4327.446000000117</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4450.767000000234</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3923.85</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2948.493000000117</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1771.338000000059</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>706.2930000000292</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>22.42200000000091</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2049,46 +1557,46 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>336.3300000000146</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>629.999999998337</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5263.878000001698</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2137.175953673317</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6147</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>661.4490000000292</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.84400000000183</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2129,37 +1637,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>504.4949999982337</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>677.8800000031832</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>824.04</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1774.494431179025</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6327.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6329.280000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6288.120000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>988.132810937657</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2287,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-3.358582034707069e-07</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2305,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1282.848000000059</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>2662.290000000117</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>3629.475969697636</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3571.341999998113</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4000000001863</v>
+        <v>3287.660000006692</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>2048.013000000117</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>808.068000000055</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2000000002561</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.17379859146662</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2341,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>-2.362924078624928e-09</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2385,16 +1893,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.000000000000028</v>
+        <v>4617.078000001698</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1465.175953673317</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>5349</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2403,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6000000011409</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2412,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.0977655329645</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2430,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>8.91159288585186e-08</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -2453,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-5.158995008969214e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-09</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2465,31 +1973,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>923.5744311790254</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>5349</v>
       </c>
       <c r="L4" t="n">
-        <v>89.38312417107429</v>
+        <v>5349</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5349</v>
       </c>
       <c r="N4" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>62.45281093765193</v>
       </c>
       <c r="P4" t="n">
-        <v>3.999999999999943</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.000000000000057</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1089.109999667389</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>1075.050000005234</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>1000.6</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>873.7699999943113</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>886.0320000030091</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-3.618739293015096e-09</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>412.1519999968975</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1138.467999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1080.25</v>
       </c>
       <c r="S2" t="n">
-        <v>41.60000000000001</v>
+        <v>1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>88.40000000000001</v>
+        <v>1167.359999977631</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000466</v>
+        <v>1256.80000002005</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995343</v>
+        <v>1236.780000006751</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>1017.730000000122</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -2688,25 +2196,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004657</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995343</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>284.3199999966131</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.663038347032852e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>158.8359999985971</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>887.7159999999982</v>
       </c>
       <c r="S3" t="n">
-        <v>62.4</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>977.5000000873509</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>295.5299999966155</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1498.259999999767</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1175.610000000009</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.8909090908095</v>
+        <v>8153.393939397001</v>
       </c>
       <c r="C2" t="n">
-        <v>192.1939393937928</v>
+        <v>7067.484848482623</v>
       </c>
       <c r="D2" t="n">
-        <v>179.0626262625267</v>
+        <v>6056.777777773389</v>
       </c>
       <c r="E2" t="n">
-        <v>165.9313131312606</v>
+        <v>5174.181818183175</v>
       </c>
       <c r="F2" t="n">
-        <v>152.7999999999945</v>
+        <v>4279.199999998317</v>
       </c>
       <c r="G2" t="n">
-        <v>152.7999999999945</v>
+        <v>4279.19999999832</v>
       </c>
       <c r="H2" t="n">
-        <v>152.7999999999945</v>
+        <v>5549.219519998378</v>
       </c>
       <c r="I2" t="n">
-        <v>178.5399999999945</v>
+        <v>8184.886619998493</v>
       </c>
       <c r="J2" t="n">
-        <v>205.5669999999945</v>
+        <v>11778.06782999915</v>
       </c>
       <c r="K2" t="n">
-        <v>205.5669999999945</v>
+        <v>15313.69640999316</v>
       </c>
       <c r="L2" t="n">
-        <v>318.8230000001789</v>
+        <v>18568.47980999978</v>
       </c>
       <c r="M2" t="n">
-        <v>446.2360000001789</v>
+        <v>20596.0126799999</v>
       </c>
       <c r="N2" t="n">
-        <v>587.806000000179</v>
+        <v>21396</v>
       </c>
       <c r="O2" t="n">
-        <v>695.9140000004326</v>
+        <v>20979.68484848793</v>
       </c>
       <c r="P2" t="n">
-        <v>763.4060606059845</v>
+        <v>19829.71717172026</v>
       </c>
       <c r="Q2" t="n">
-        <v>763.4060606059845</v>
+        <v>18661.72727273036</v>
       </c>
       <c r="R2" t="n">
-        <v>763.4060606059845</v>
+        <v>17570.56565656873</v>
       </c>
       <c r="S2" t="n">
-        <v>721.3858585857826</v>
+        <v>16415.00000000308</v>
       </c>
       <c r="T2" t="n">
-        <v>632.0929292928532</v>
+        <v>15235.84848487182</v>
       </c>
       <c r="U2" t="n">
-        <v>513.911111110988</v>
+        <v>13966.35353535661</v>
       </c>
       <c r="V2" t="n">
-        <v>415.4262626261395</v>
+        <v>12606.00000000308</v>
       </c>
       <c r="W2" t="n">
-        <v>336.6383838383078</v>
+        <v>11356.72727272354</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1131313130082</v>
+        <v>10328.71717171343</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.7191919190923</v>
+        <v>9253.505050501308</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>205.3252525252941</v>
+        <v>6136.593939390522</v>
       </c>
       <c r="C3" t="n">
-        <v>185.6282828282774</v>
+        <v>5317.402020198603</v>
       </c>
       <c r="D3" t="n">
-        <v>172.4969696970113</v>
+        <v>4566.391919188498</v>
       </c>
       <c r="E3" t="n">
-        <v>172.4969696970113</v>
+        <v>4279.2</v>
       </c>
       <c r="F3" t="n">
-        <v>172.4969696970113</v>
+        <v>4279.2</v>
       </c>
       <c r="G3" t="n">
-        <v>152.7999999999946</v>
+        <v>4279.2</v>
       </c>
       <c r="H3" t="n">
-        <v>152.7999999999946</v>
+        <v>4279.19999999832</v>
       </c>
       <c r="I3" t="n">
-        <v>156.7599999999946</v>
+        <v>8850.10722</v>
       </c>
       <c r="J3" t="n">
-        <v>156.7599999999946</v>
+        <v>10300.63141413658</v>
       </c>
       <c r="K3" t="n">
-        <v>164.6799999999946</v>
+        <v>10300.63141413658</v>
       </c>
       <c r="L3" t="n">
-        <v>350.0079999999946</v>
+        <v>15596.14141413658</v>
       </c>
       <c r="M3" t="n">
-        <v>350.0079999999946</v>
+        <v>15596.14141413659</v>
       </c>
       <c r="N3" t="n">
-        <v>350.0079999999946</v>
+        <v>15596.14141413659</v>
       </c>
       <c r="O3" t="n">
-        <v>494.1520000011241</v>
+        <v>15596.14141413658</v>
       </c>
       <c r="P3" t="n">
-        <v>494.1520000011241</v>
+        <v>15596.14141413658</v>
       </c>
       <c r="Q3" t="n">
-        <v>494.1520000011241</v>
+        <v>15435.70101009759</v>
       </c>
       <c r="R3" t="n">
-        <v>550.678787878759</v>
+        <v>14539.01818181477</v>
       </c>
       <c r="S3" t="n">
-        <v>487.648484848456</v>
+        <v>13578.61414141073</v>
       </c>
       <c r="T3" t="n">
-        <v>356.3353535353246</v>
+        <v>12463.96767676427</v>
       </c>
       <c r="U3" t="n">
-        <v>356.3353535353246</v>
+        <v>11253.36161615821</v>
       </c>
       <c r="V3" t="n">
-        <v>356.3353535353246</v>
+        <v>10068.51313130972</v>
       </c>
       <c r="W3" t="n">
-        <v>277.5474747474929</v>
+        <v>8927.301010097601</v>
       </c>
       <c r="X3" t="n">
-        <v>277.5474747474929</v>
+        <v>7939.927272723855</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.153535353577</v>
+        <v>7024.77575757234</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>192.1939393940318</v>
+        <v>7683.472727272737</v>
       </c>
       <c r="C4" t="n">
-        <v>172.4969696970151</v>
+        <v>6586.280808080817</v>
       </c>
       <c r="D4" t="n">
-        <v>172.4969696970151</v>
+        <v>5554.462626262635</v>
       </c>
       <c r="E4" t="n">
-        <v>172.4969696970151</v>
+        <v>4577.715151515161</v>
       </c>
       <c r="F4" t="n">
-        <v>172.4969696970151</v>
+        <v>4279.19999999832</v>
       </c>
       <c r="G4" t="n">
-        <v>152.7999999999984</v>
+        <v>4279.200000001471</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7999999999984</v>
+        <v>4279.200000001471</v>
       </c>
       <c r="I4" t="n">
-        <v>152.7999999999984</v>
+        <v>4279.200000001471</v>
       </c>
       <c r="J4" t="n">
-        <v>153.7899999999984</v>
+        <v>5193.538686868706</v>
       </c>
       <c r="K4" t="n">
-        <v>157.7499999999984</v>
+        <v>10489.04868686871</v>
       </c>
       <c r="L4" t="n">
-        <v>246.2392929293619</v>
+        <v>15784.55868686871</v>
       </c>
       <c r="M4" t="n">
-        <v>246.2392929293619</v>
+        <v>21080.06868686871</v>
       </c>
       <c r="N4" t="n">
-        <v>388.7992929293619</v>
+        <v>21080.06868686871</v>
       </c>
       <c r="O4" t="n">
-        <v>388.7992929293619</v>
+        <v>21141.89696969698</v>
       </c>
       <c r="P4" t="n">
-        <v>392.7592929293619</v>
+        <v>21141.89696969698</v>
       </c>
       <c r="Q4" t="n">
-        <v>394.7392929293619</v>
+        <v>19865.79595959597</v>
       </c>
       <c r="R4" t="n">
-        <v>395.7292929293619</v>
+        <v>18594.86666666666</v>
       </c>
       <c r="S4" t="n">
-        <v>395.7292929293619</v>
+        <v>17312.93737373737</v>
       </c>
       <c r="T4" t="n">
-        <v>264.4161616162306</v>
+        <v>15873.95757575759</v>
       </c>
       <c r="U4" t="n">
-        <v>264.4161616162306</v>
+        <v>14337.61414141415</v>
       </c>
       <c r="V4" t="n">
-        <v>264.4161616162306</v>
+        <v>12824.22020202022</v>
       </c>
       <c r="W4" t="n">
-        <v>264.4161616162306</v>
+        <v>11353.05858585861</v>
       </c>
       <c r="X4" t="n">
-        <v>264.4161616162306</v>
+        <v>10032.92727272729</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.0222222223147</v>
+        <v>8845.442424242434</v>
       </c>
     </row>
     <row r="5">
@@ -6832,40 +6340,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>134.4699696975185</v>
       </c>
       <c r="K2" t="n">
-        <v>10.40000000000003</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8</v>
+        <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>96.77379859146663</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.40000000000003</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6924,25 +6432,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -7001,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>89.38312417107429</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7156,31 +6664,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>73.97499999788033</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>42.56000000539188</v>
       </c>
       <c r="M2" t="n">
-        <v>8.099999999999991</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.799999999999997</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -7192,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.000000003376044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7239,16 +6747,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -7257,19 +6765,19 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>11.6000000013737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3999999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7319,10 +6827,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -7331,19 +6839,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3375477.665853985</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>308300</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>405382.4024540471</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>198990</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15.59999999999997</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.20000000018625</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.40000000025613</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>15.59999999999997</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>19.60000000114087</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.097765532964502</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>781407.0162283969</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 11.xlsx
+++ b/model/Output Files/Year 11.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,22 +524,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>61.20999999984885</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>61.20999999999185</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>122.4000000056886</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>91.59799999699089</v>
+        <v>111</v>
       </c>
       <c r="G2" t="n">
-        <v>115.75800000459</v>
+        <v>111</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -550,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>74.48591407873164</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -562,37 +563,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="R2" t="n">
-        <v>61.20999999999185</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="T2" t="n">
-        <v>122.4000000200063</v>
+        <v>111</v>
       </c>
       <c r="U2" t="n">
-        <v>122.3999999799501</v>
+        <v>111</v>
       </c>
       <c r="V2" t="n">
-        <v>4.654793883673848e-09</v>
+        <v>111</v>
       </c>
       <c r="W2" t="n">
-        <v>61.20999999324344</v>
+        <v>111</v>
       </c>
       <c r="X2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>55.50999999999476</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -654,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>55.51000000181268</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -666,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.764988155628089e-09</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -680,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>60.36300000081911</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.084075382910671e-09</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>61.20999999999185</v>
+        <v>55.50999999967163</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -725,13 +726,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>55.50999999983466</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>55.50999999983466</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -746,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.20999999999039</v>
+        <v>55.50999999983466</v>
       </c>
     </row>
   </sheetData>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384542.827487329</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15600</v>
+      </c>
+      <c r="D2" t="n">
+        <v>432406.5786974631</v>
+      </c>
+      <c r="E2" t="n">
+        <v>182940</v>
+      </c>
+      <c r="F2" t="n">
+        <v>873670.1438156634</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -795,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -808,10 +875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>915</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>11211</v>
+        <v>10198</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -824,13 +891,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="C4" t="n">
-        <v>5349</v>
+        <v>5254</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1156,43 +1273,43 @@
         <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-996.17</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
         <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-866.895</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-775.78</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-566.6700000000001</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-390.5800000000002</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-468.3050000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-559.8699999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-699.625</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-920.71</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1118.445</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
         <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1156.31</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
         <v>-1141.46</v>
@@ -1233,43 +1350,43 @@
         <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-620.6500000000001</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-335.1400000000001</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>27.27000000000005</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>193.87</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>379.3449999999998</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>534.7799999999999</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>483.6749999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>452.2999999999998</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>367.57</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>149.0700000000001</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-161.885</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-461.76</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-820.285</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
         <v>-932.5600000000001</v>
@@ -1310,43 +1427,43 @@
         <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-966.9799999999999</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-861.235</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-428.7049999999999</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-144.71</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>96.98000000000013</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>278.04</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>230.71</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8149999999999</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>79.84499999999994</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-180.765</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-573.1600000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-991.62</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1263.34</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
         <v>-1258.22</v>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>751.1370000000293</v>
+        <v>683.2660000000293</v>
       </c>
       <c r="H2" t="n">
-        <v>2107.668000000059</v>
+        <v>1917.224000000059</v>
       </c>
       <c r="I2" t="n">
-        <v>3475.410000000117</v>
+        <v>3161.38</v>
       </c>
       <c r="J2" t="n">
-        <v>4327.446000000117</v>
+        <v>3936.428</v>
       </c>
       <c r="K2" t="n">
-        <v>4450.767000000234</v>
+        <v>4048.606</v>
       </c>
       <c r="L2" t="n">
-        <v>3923.85</v>
+        <v>3569.3</v>
       </c>
       <c r="M2" t="n">
-        <v>2948.493000000117</v>
+        <v>2682.074</v>
       </c>
       <c r="N2" t="n">
-        <v>1771.338000000059</v>
+        <v>1611.284000000059</v>
       </c>
       <c r="O2" t="n">
-        <v>706.2930000000292</v>
+        <v>642.4740000000293</v>
       </c>
       <c r="P2" t="n">
-        <v>22.42200000000091</v>
+        <v>20.396</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,28 +1674,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>336.3300000000146</v>
+        <v>305.9400000000146</v>
       </c>
       <c r="F3" t="n">
-        <v>462</v>
+        <v>1590.888000000059</v>
       </c>
       <c r="G3" t="n">
         <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>629.999999998337</v>
+        <v>5119.396</v>
       </c>
       <c r="I3" t="n">
-        <v>5263.878000001698</v>
+        <v>3171.993257218662</v>
       </c>
       <c r="J3" t="n">
-        <v>2137.175953673317</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
         <v>798</v>
       </c>
       <c r="L3" t="n">
-        <v>6147</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
         <v>756</v>
@@ -1587,16 +1704,16 @@
         <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>739.2</v>
+        <v>4069.002</v>
       </c>
       <c r="P3" t="n">
         <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>661.4490000000292</v>
+        <v>601.6820000000292</v>
       </c>
       <c r="R3" t="n">
-        <v>44.84400000000183</v>
+        <v>40.79200000000183</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,34 +1754,34 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>504.4949999982337</v>
+        <v>458.9100000000146</v>
       </c>
       <c r="G4" t="n">
-        <v>677.8800000031832</v>
+        <v>677.88</v>
       </c>
       <c r="H4" t="n">
-        <v>805.5599999999999</v>
+        <v>4895.04</v>
       </c>
       <c r="I4" t="n">
-        <v>824.04</v>
+        <v>6078.039999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>1774.494431179025</v>
+        <v>850.9200000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>6327.6</v>
+        <v>4143.408262626263</v>
       </c>
       <c r="L4" t="n">
-        <v>6329.280000000001</v>
+        <v>980.2800000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>6288.120000000001</v>
+        <v>939.1200000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>940.8</v>
+        <v>5415.138</v>
       </c>
       <c r="O4" t="n">
-        <v>988.132810937657</v>
+        <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
         <v>1018.26</v>
@@ -1795,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.358582034707069e-07</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1813,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1282.848000000059</v>
+        <v>1164.444</v>
       </c>
       <c r="I2" t="n">
-        <v>2662.290000000117</v>
+        <v>2632.71000000116</v>
       </c>
       <c r="J2" t="n">
-        <v>3629.475969697636</v>
+        <v>3592.848</v>
       </c>
       <c r="K2" t="n">
-        <v>3571.341999998113</v>
+        <v>3702.786914078732</v>
       </c>
       <c r="L2" t="n">
-        <v>3287.660000006692</v>
+        <v>3052.43000000142</v>
       </c>
       <c r="M2" t="n">
-        <v>2048.013000000117</v>
+        <v>2014.449000004289</v>
       </c>
       <c r="N2" t="n">
-        <v>808.068000000055</v>
+        <v>709.574</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1849,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.362924078624928e-09</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1884,25 +2001,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1128.888</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4489.396</v>
       </c>
       <c r="I3" t="n">
-        <v>4617.078000001698</v>
+        <v>2525.193257218662</v>
       </c>
       <c r="J3" t="n">
-        <v>1465.175953673317</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5349</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1911,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3329.802000000001</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1938,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>8.91159288585186e-08</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1961,34 +2078,34 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.158995008969214e-09</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.183231456205249e-09</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4089.48</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5254</v>
       </c>
       <c r="J4" t="n">
-        <v>923.5744311790254</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5349</v>
+        <v>3164.808262626264</v>
       </c>
       <c r="L4" t="n">
-        <v>5349</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>5349</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4474.338</v>
       </c>
       <c r="O4" t="n">
-        <v>62.45281093765193</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1089.109999667389</v>
+        <v>1100.510000000013</v>
       </c>
       <c r="C2" t="n">
-        <v>1075.050000005234</v>
+        <v>1025.26</v>
       </c>
       <c r="D2" t="n">
-        <v>1000.6</v>
+        <v>950.8099999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>873.7699999943113</v>
+        <v>920.169999999971</v>
       </c>
       <c r="F2" t="n">
-        <v>886.0320000030091</v>
+        <v>866.6299999999418</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.618739293015096e-09</v>
+        <v>64.62899999847238</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>412.1519999968975</v>
+        <v>357.9709999969267</v>
       </c>
       <c r="P2" t="n">
-        <v>1138.467999999999</v>
+        <v>1140.494</v>
       </c>
       <c r="Q2" t="n">
-        <v>1156.31</v>
+        <v>1080.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1080.25</v>
+        <v>1141.459999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>1144.01</v>
+        <v>1033.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1167.359999977631</v>
+        <v>1178.76</v>
       </c>
       <c r="U2" t="n">
-        <v>1256.80000002005</v>
+        <v>1268.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1346.75</v>
+        <v>1235.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1236.780000006751</v>
+        <v>1186.99</v>
       </c>
       <c r="X2" t="n">
-        <v>1017.730000000122</v>
+        <v>1029.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>1064.46</v>
+        <v>953.4599999999709</v>
       </c>
     </row>
     <row r="3">
@@ -2202,10 +2319,10 @@
         <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>743.5</v>
+        <v>687.9900000000052</v>
       </c>
       <c r="E3" t="n">
-        <v>284.3199999966131</v>
+        <v>345.7100000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2214,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.663038347032852e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2241,16 +2358,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.8359999985971</v>
+        <v>245.6029999999998</v>
       </c>
       <c r="R3" t="n">
-        <v>887.7159999999982</v>
+        <v>891.768</v>
       </c>
       <c r="S3" t="n">
         <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1103.5</v>
+        <v>1047.989999998187</v>
       </c>
       <c r="U3" t="n">
         <v>1198.5</v>
@@ -2262,7 +2379,7 @@
         <v>1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>977.5000000873509</v>
+        <v>977.5</v>
       </c>
       <c r="Y3" t="n">
         <v>906</v>
@@ -2276,16 +2393,16 @@
         <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>1086.22</v>
+        <v>1025.856999999181</v>
       </c>
       <c r="D4" t="n">
         <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>966.9799999999999</v>
+        <v>1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>295.5299999966155</v>
+        <v>341.8150000003274</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2318,22 +2435,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1263.34</v>
+        <v>1298.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1258.22</v>
+        <v>1202.710000000165</v>
       </c>
       <c r="S4" t="n">
         <v>1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.59</v>
+        <v>1369.080000000164</v>
       </c>
       <c r="U4" t="n">
         <v>1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1498.259999999767</v>
+        <v>1498.26</v>
       </c>
       <c r="W4" t="n">
         <v>1456.45</v>
@@ -2342,7 +2459,7 @@
         <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.610000000009</v>
+        <v>1181.310000000165</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8153.393939397001</v>
+        <v>8069.360606059004</v>
       </c>
       <c r="C2" t="n">
-        <v>7067.484848482623</v>
+        <v>7033.744444433747</v>
       </c>
       <c r="D2" t="n">
-        <v>6056.777777773389</v>
+        <v>6073.330303015886</v>
       </c>
       <c r="E2" t="n">
-        <v>5174.181818183175</v>
+        <v>5143.865656555038</v>
       </c>
       <c r="F2" t="n">
-        <v>4279.199999998317</v>
+        <v>4268.481818180303</v>
       </c>
       <c r="G2" t="n">
-        <v>4279.19999999832</v>
+        <v>4203.2</v>
       </c>
       <c r="H2" t="n">
-        <v>5549.219519998378</v>
+        <v>5355.999559999999</v>
       </c>
       <c r="I2" t="n">
-        <v>8184.886619998493</v>
+        <v>7962.382459944167</v>
       </c>
       <c r="J2" t="n">
-        <v>11778.06782999915</v>
+        <v>11519.30197995227</v>
       </c>
       <c r="K2" t="n">
-        <v>15313.69640999316</v>
+        <v>15185.06102493909</v>
       </c>
       <c r="L2" t="n">
-        <v>18568.47980999978</v>
+        <v>18206.96672489719</v>
       </c>
       <c r="M2" t="n">
-        <v>20596.0126799999</v>
+        <v>20201.2712349042</v>
       </c>
       <c r="N2" t="n">
-        <v>21396</v>
+        <v>20903.74949494474</v>
       </c>
       <c r="O2" t="n">
-        <v>20979.68484848793</v>
+        <v>20542.16262622953</v>
       </c>
       <c r="P2" t="n">
-        <v>19829.71717172026</v>
+        <v>19390.14848481715</v>
       </c>
       <c r="Q2" t="n">
-        <v>18661.72727273036</v>
+        <v>18298.92626262462</v>
       </c>
       <c r="R2" t="n">
-        <v>17570.56565656873</v>
+        <v>17145.93636361341</v>
       </c>
       <c r="S2" t="n">
-        <v>16415.00000000308</v>
+        <v>16102.49191917288</v>
       </c>
       <c r="T2" t="n">
-        <v>15235.84848487182</v>
+        <v>14911.82525250897</v>
       </c>
       <c r="U2" t="n">
-        <v>13966.35353535661</v>
+        <v>13630.8151515135</v>
       </c>
       <c r="V2" t="n">
-        <v>12606.00000000308</v>
+        <v>12382.58282827636</v>
       </c>
       <c r="W2" t="n">
-        <v>11356.72727272354</v>
+        <v>11183.60303030141</v>
       </c>
       <c r="X2" t="n">
-        <v>10328.71717171343</v>
+        <v>10144.07777777616</v>
       </c>
       <c r="Y2" t="n">
-        <v>9253.505050501308</v>
+        <v>9180.986868685281</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6136.593939390522</v>
+        <v>6066.533333320514</v>
       </c>
       <c r="C3" t="n">
-        <v>5317.402020198603</v>
+        <v>5247.34141412493</v>
       </c>
       <c r="D3" t="n">
-        <v>4566.391919188498</v>
+        <v>4552.402020194684</v>
       </c>
       <c r="E3" t="n">
-        <v>4279.2</v>
+        <v>4203.19999999832</v>
       </c>
       <c r="F3" t="n">
-        <v>4279.2</v>
+        <v>5320.799119995623</v>
       </c>
       <c r="G3" t="n">
-        <v>4279.2</v>
+        <v>5320.799119992924</v>
       </c>
       <c r="H3" t="n">
-        <v>4279.19999999832</v>
+        <v>9765.301159989738</v>
       </c>
       <c r="I3" t="n">
-        <v>8850.10722</v>
+        <v>12265.24248464647</v>
       </c>
       <c r="J3" t="n">
-        <v>10300.63141413658</v>
+        <v>12265.24248464378</v>
       </c>
       <c r="K3" t="n">
-        <v>10300.63141413658</v>
+        <v>12265.24248464061</v>
       </c>
       <c r="L3" t="n">
-        <v>15596.14141413658</v>
+        <v>12265.24248463791</v>
       </c>
       <c r="M3" t="n">
-        <v>15596.14141413659</v>
+        <v>12265.2424846352</v>
       </c>
       <c r="N3" t="n">
-        <v>15596.14141413659</v>
+        <v>12265.24248463248</v>
       </c>
       <c r="O3" t="n">
-        <v>15596.14141413658</v>
+        <v>15561.74646462933</v>
       </c>
       <c r="P3" t="n">
-        <v>15596.14141413658</v>
+        <v>15561.74646464648</v>
       </c>
       <c r="Q3" t="n">
-        <v>15435.70101009759</v>
+        <v>15313.66262624001</v>
       </c>
       <c r="R3" t="n">
-        <v>14539.01818181477</v>
+        <v>14412.88686866152</v>
       </c>
       <c r="S3" t="n">
-        <v>13578.61414141073</v>
+        <v>13452.48282827083</v>
       </c>
       <c r="T3" t="n">
-        <v>12463.96767676427</v>
+        <v>12393.90707070892</v>
       </c>
       <c r="U3" t="n">
-        <v>11253.36161615821</v>
+        <v>11183.30101010101</v>
       </c>
       <c r="V3" t="n">
-        <v>10068.51313130972</v>
+        <v>9998.452525252531</v>
       </c>
       <c r="W3" t="n">
-        <v>8927.301010097601</v>
+        <v>8857.240404040409</v>
       </c>
       <c r="X3" t="n">
-        <v>7939.927272723855</v>
+        <v>7869.866666659298</v>
       </c>
       <c r="Y3" t="n">
-        <v>7024.77575757234</v>
+        <v>6954.715151505039</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7683.472727272737</v>
+        <v>7628.606060605565</v>
       </c>
       <c r="C4" t="n">
-        <v>6586.280808080817</v>
+        <v>6592.3868686872</v>
       </c>
       <c r="D4" t="n">
-        <v>5554.462626262635</v>
+        <v>5560.568686845943</v>
       </c>
       <c r="E4" t="n">
-        <v>4577.715151515161</v>
+        <v>4548.467676742234</v>
       </c>
       <c r="F4" t="n">
-        <v>4279.19999999832</v>
+        <v>4203.19999999832</v>
       </c>
       <c r="G4" t="n">
-        <v>4279.200000001471</v>
+        <v>4203.2</v>
       </c>
       <c r="H4" t="n">
-        <v>4279.200000001471</v>
+        <v>8251.7852</v>
       </c>
       <c r="I4" t="n">
-        <v>4279.200000001471</v>
+        <v>13453.2452</v>
       </c>
       <c r="J4" t="n">
-        <v>5193.538686868706</v>
+        <v>13453.2452</v>
       </c>
       <c r="K4" t="n">
-        <v>10489.04868686871</v>
+        <v>16586.40538</v>
       </c>
       <c r="L4" t="n">
-        <v>15784.55868686871</v>
+        <v>16586.40537997682</v>
       </c>
       <c r="M4" t="n">
-        <v>21080.06868686871</v>
+        <v>16586.40538</v>
       </c>
       <c r="N4" t="n">
-        <v>21080.06868686871</v>
+        <v>21015.99999998236</v>
       </c>
       <c r="O4" t="n">
-        <v>21141.89696969698</v>
+        <v>21015.99999998512</v>
       </c>
       <c r="P4" t="n">
-        <v>21141.89696969698</v>
+        <v>21015.99999998786</v>
       </c>
       <c r="Q4" t="n">
-        <v>19865.79595959597</v>
+        <v>19704.54545454546</v>
       </c>
       <c r="R4" t="n">
-        <v>18594.86666666666</v>
+        <v>18489.6868686867</v>
       </c>
       <c r="S4" t="n">
-        <v>17312.93737373737</v>
+        <v>17207.75757575741</v>
       </c>
       <c r="T4" t="n">
-        <v>15873.95757575759</v>
+        <v>15824.84848484815</v>
       </c>
       <c r="U4" t="n">
-        <v>14337.61414141415</v>
+        <v>14288.50505050472</v>
       </c>
       <c r="V4" t="n">
-        <v>12824.22020202022</v>
+        <v>12775.11111110584</v>
       </c>
       <c r="W4" t="n">
-        <v>11353.05858585861</v>
+        <v>11303.94949494062</v>
       </c>
       <c r="X4" t="n">
-        <v>10032.92727272729</v>
+        <v>9983.818181817845</v>
       </c>
       <c r="Y4" t="n">
-        <v>8845.442424242434</v>
+        <v>8790.575757575256</v>
       </c>
     </row>
     <row r="5">
@@ -6346,19 +6463,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
-        <v>134.4699696975185</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>349.0949999999999</v>
       </c>
       <c r="L2" t="n">
         <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>116.5350000022445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6667,25 +6784,25 @@
         <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.03999999999996</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100.08</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>73.97499999788033</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>42.56000000539188</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
         <v>4.800000003073364</v>
@@ -6735,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.000000003376044</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6771,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.6000000013737</v>
+        <v>11.6</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3375477.665853985</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>308300</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>405382.4024540471</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>198990</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>781407.0162283969</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
